--- a/evacout/onedooralpha.xlsx
+++ b/evacout/onedooralpha.xlsx
@@ -9,12 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="onedooralpha" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">onedooralpha!$G$2</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">onedooralpha!$H$2</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>alpha</t>
   </si>
@@ -122,6 +150,21 @@
   <si>
     <t>Residuals</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>sq dif</t>
+  </si>
 </sst>
 </file>
 
@@ -209,6 +252,3380 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>onedooralpha!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> numberDead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>onedooralpha!$A$2:$A$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="282"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>onedooralpha!$B$2:$B$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="282"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>onedooralpha!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>onedooralpha!$A$2:$A$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="282"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>onedooralpha!$D$2:$D$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="282"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.530306036813632</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.20771413493837</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.14361798553034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.43486258186926</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.16564436834987</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28.40916321838469</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31.2290586538815</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33.68065848566615</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35.8120643738237</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>37.66509560721455</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39.27610961960906</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>40.67671534139295</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41.89439338317362</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42.95303521961158</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43.87341195254325</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44.6735818507708</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45.3692446626609</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45.97404965334955</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46.49986341040241</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>46.95700267241684</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>47.35443674878332</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>47.69996350218717</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>48.00036234671834</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>48.26152726349165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1973802672"/>
+        <c:axId val="-1994247600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1973802672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1994247600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1994247600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1973802672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1837,11 +5254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2053145056"/>
-        <c:axId val="-2002830256"/>
+        <c:axId val="-1988134384"/>
+        <c:axId val="-1988126192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2053145056"/>
+        <c:axId val="-1988134384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,6 +5320,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1939,12 +5357,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002830256"/>
+        <c:crossAx val="-1988126192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2002830256"/>
+        <c:axId val="-1988126192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,7 +5454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053145056"/>
+        <c:crossAx val="-1988134384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2085,7 +5503,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5267,11 +8685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2026619936"/>
-        <c:axId val="-2002815088"/>
+        <c:axId val="-1977568256"/>
+        <c:axId val="-1974049824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2026619936"/>
+        <c:axId val="-1977568256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5383,12 +8801,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002815088"/>
+        <c:crossAx val="-1974049824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2002815088"/>
+        <c:axId val="-1974049824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5500,7 +8918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2026619936"/>
+        <c:crossAx val="-1977568256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5661,7 +9079,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6164,7 +10138,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6688,6 +10662,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -7012,15 +11021,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7030,8 +11039,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7041,8 +11065,27 @@
       <c r="C2">
         <v>23.849900000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>$F$2*(1-EXP(-$G$2*A2))</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>(B2-D2)^2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>1.3995900063657614</v>
+      </c>
+      <c r="H2">
+        <f>SUM(E2:E251)</f>
+        <v>1972.3386133216486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -7052,8 +11095,16 @@
       <c r="C3">
         <v>24.2499</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">$F$2*(1-EXP(-$G$2*A3))</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">(B3-D3)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7063,8 +11114,16 @@
       <c r="C4">
         <v>22.149899999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7074,8 +11133,16 @@
       <c r="C5">
         <v>24.849900000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7085,8 +11152,16 @@
       <c r="C6">
         <v>24.4999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -7096,8 +11171,16 @@
       <c r="C7">
         <v>25.099900000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -7107,8 +11190,16 @@
       <c r="C8">
         <v>26.1999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -7118,8 +11209,16 @@
       <c r="C9">
         <v>26.7499</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7129,8 +11228,16 @@
       <c r="C10">
         <v>21.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -7140,8 +11247,16 @@
       <c r="C11">
         <v>23.049900000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -7151,8 +11266,16 @@
       <c r="C12">
         <v>22.6999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>42.644896934444574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -7162,8 +11285,16 @@
       <c r="C13">
         <v>23.1999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>30.584284860817306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -7173,8 +11304,16 @@
       <c r="C14">
         <v>23.1999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>30.584284860817306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -7184,8 +11323,16 @@
       <c r="C15">
         <v>24.4999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>20.523672787190041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -7195,8 +11342,16 @@
       <c r="C16">
         <v>25.599900000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>30.584284860817306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -7206,8 +11361,16 @@
       <c r="C17">
         <v>25.4499</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>42.644896934444574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -7217,8 +11380,16 @@
       <c r="C18">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>20.523672787190041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -7228,8 +11399,16 @@
       <c r="C19">
         <v>23.4499</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>42.644896934444574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -7239,8 +11418,16 @@
       <c r="C20">
         <v>21.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>20.523672787190041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.1</v>
       </c>
@@ -7250,8 +11437,16 @@
       <c r="C21">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6.5303060368136325</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>30.584284860817306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -7261,8 +11456,16 @@
       <c r="C22">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>38.53571478111369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -7272,8 +11475,16 @@
       <c r="C23">
         <v>20.45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>51.951143050990439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.2</v>
       </c>
@@ -7283,8 +11494,16 @@
       <c r="C24">
         <v>22.4499</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>51.951143050990439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -7294,8 +11513,16 @@
       <c r="C25">
         <v>22.1999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>67.366571320867195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -7305,8 +11532,16 @@
       <c r="C26">
         <v>21.35</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>84.781999590743936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.2</v>
       </c>
@@ -7316,8 +11551,16 @@
       <c r="C27">
         <v>22.649899999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>51.951143050990439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.2</v>
       </c>
@@ -7327,8 +11570,16 @@
       <c r="C28">
         <v>23.599900000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>38.53571478111369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.2</v>
       </c>
@@ -7338,8 +11589,16 @@
       <c r="C29">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>38.53571478111369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.2</v>
       </c>
@@ -7349,8 +11608,16 @@
       <c r="C30">
         <v>22.549900000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>27.120286511236941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.2</v>
       </c>
@@ -7360,8 +11627,16 @@
       <c r="C31">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>12.207714134938374</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>84.781999590743936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.3</v>
       </c>
@@ -7371,8 +11646,16 @@
       <c r="C32">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.73339015470711166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.3</v>
       </c>
@@ -7382,8 +11665,16 @@
       <c r="C33">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>9.8823340389498373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.3</v>
       </c>
@@ -7393,8 +11684,16 @@
       <c r="C34">
         <v>18.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>8.158918212585748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.3</v>
       </c>
@@ -7404,8 +11703,16 @@
       <c r="C35">
         <v>16.649999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>37.74404195213188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.3</v>
       </c>
@@ -7415,8 +11722,16 @@
       <c r="C36">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>4.5950980678891566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.3</v>
       </c>
@@ -7426,8 +11741,16 @@
       <c r="C37">
         <v>17.350000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1.3078620968284747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.3</v>
       </c>
@@ -7437,8 +11760,16 @@
       <c r="C38">
         <v>19.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>4.5950980678891566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.3</v>
       </c>
@@ -7448,8 +11779,16 @@
       <c r="C39">
         <v>17.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>17.169570010010521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.3</v>
       </c>
@@ -7459,8 +11798,16 @@
       <c r="C40">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>9.8823340389498373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.3</v>
       </c>
@@ -7470,8 +11817,16 @@
       <c r="C41">
         <v>18.55</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>17.143617985530341</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>17.169570010010521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.4</v>
       </c>
@@ -7481,8 +11836,16 @@
       <c r="C42">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.31938030137147766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.4</v>
       </c>
@@ -7492,8 +11855,16 @@
       <c r="C43">
         <v>14.35</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0.18910546510999979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.4</v>
       </c>
@@ -7503,8 +11874,16 @@
       <c r="C44">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>6.5799299738944335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.4</v>
       </c>
@@ -7514,8 +11893,16 @@
       <c r="C45">
         <v>14.75</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>19.668006120064089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.4</v>
       </c>
@@ -7525,8 +11912,16 @@
       <c r="C46">
         <v>14.25</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>2.0588306288485221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.4</v>
       </c>
@@ -7536,8 +11931,16 @@
       <c r="C47">
         <v>17.850000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>6.5799299738944335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.4</v>
       </c>
@@ -7547,8 +11950,16 @@
       <c r="C48">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0.31938030137147766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.4</v>
       </c>
@@ -7558,8 +11969,16 @@
       <c r="C49">
         <v>14.95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>12.710204810155911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.4</v>
       </c>
@@ -7569,8 +11988,16 @@
       <c r="C50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0.18910546510999979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.4</v>
       </c>
@@ -7580,8 +12007,16 @@
       <c r="C51">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>21.434862581869261</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>12.710204810155911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -7591,8 +12026,16 @@
       <c r="C52">
         <v>13.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>4.6900155301654927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -7602,8 +12045,16 @@
       <c r="C53">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>14.702283109967095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.5</v>
       </c>
@@ -7613,8 +12064,16 @@
       <c r="C54">
         <v>13.55</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>34.039705636567625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.5</v>
       </c>
@@ -7624,8 +12083,16 @@
       <c r="C55">
         <v>13.55</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>46.708416899867892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -7635,8 +12102,16 @@
       <c r="C56">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0.69614932006629326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.5</v>
       </c>
@@ -7646,8 +12121,16 @@
       <c r="C57">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>3.3648605833665601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.5</v>
       </c>
@@ -7657,8 +12140,16 @@
       <c r="C58">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>23.370994373267362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.5</v>
       </c>
@@ -7668,8 +12159,16 @@
       <c r="C59">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>14.702283109967095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.5</v>
       </c>
@@ -7679,8 +12178,16 @@
       <c r="C60">
         <v>13.05</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>4.6900155301654927</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.5</v>
       </c>
@@ -7690,8 +12197,16 @@
       <c r="C61">
         <v>13.55</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>25.165644368349867</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>4.6900155301654927</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.6</v>
       </c>
@@ -7701,8 +12216,16 @@
       <c r="C62">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0.34908810250953615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.6</v>
       </c>
@@ -7712,8 +12235,16 @@
       <c r="C63">
         <v>11.05</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>12.89410879220139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.6</v>
       </c>
@@ -7723,8 +12254,16 @@
       <c r="C64">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>1.9857409760483007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.6</v>
       </c>
@@ -7734,8 +12273,16 @@
       <c r="C65">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>6.7124352289707714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.6</v>
       </c>
@@ -7745,8 +12292,16 @@
       <c r="C66">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0.34908810250953615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.6</v>
       </c>
@@ -7756,8 +12311,16 @@
       <c r="C67">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="2">$F$2*(1-EXP(-$G$2*A67))</f>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="3">(B67-D67)^2</f>
+        <v>0.34908810250953615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.6</v>
       </c>
@@ -7767,8 +12330,16 @@
       <c r="C68">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>21.075782355432008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.6</v>
       </c>
@@ -7778,8 +12349,16 @@
       <c r="C69">
         <v>12.45</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>2.5307616657401537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.6</v>
       </c>
@@ -7789,8 +12368,16 @@
       <c r="C70">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>0.34908810250953615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.6</v>
       </c>
@@ -7800,8 +12387,16 @@
       <c r="C71">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>28.409163218384691</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>12.89410879220139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.7</v>
       </c>
@@ -7811,8 +12406,16 @@
       <c r="C72">
         <v>9.6500199999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>3.1362332513919977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.7</v>
       </c>
@@ -7822,8 +12425,16 @@
       <c r="C73">
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>14.21999863586599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.7</v>
       </c>
@@ -7833,8 +12444,16 @@
       <c r="C74">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>14.21999863586599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.7</v>
       </c>
@@ -7844,8 +12463,16 @@
       <c r="C75">
         <v>9.2000200000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>14.21999863586599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.7</v>
       </c>
@@ -7855,8 +12482,16 @@
       <c r="C76">
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>1.5105851746810097</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.7</v>
       </c>
@@ -7866,8 +12501,16 @@
       <c r="C77">
         <v>9.9500200000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>3.1362332513919977</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.7</v>
       </c>
@@ -7877,8 +12520,16 @@
       <c r="C78">
         <v>9.80002</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>14.21999863586599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.7</v>
       </c>
@@ -7888,8 +12539,16 @@
       <c r="C79">
         <v>9.30002</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>3.1362332513919977</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.7</v>
       </c>
@@ -7899,8 +12558,16 @@
       <c r="C80">
         <v>9.4500200000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>5.246786691800575E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.7</v>
       </c>
@@ -7910,8 +12577,16 @@
       <c r="C81">
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>31.229058653881502</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>4.968702482444014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.8</v>
       </c>
@@ -7921,8 +12596,16 @@
       <c r="C82">
         <v>9.0000199999999992</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>0.46329597410933676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.8</v>
       </c>
@@ -7932,8 +12615,16 @@
       <c r="C83">
         <v>8.6000099999999993</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>11.018028088780135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.8</v>
       </c>
@@ -7943,8 +12634,16 @@
       <c r="C84">
         <v>8.80002</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>5.3793450601124357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.8</v>
       </c>
@@ -7954,8 +12653,16 @@
       <c r="C85">
         <v>8.9000199999999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>11.018028088780135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.8</v>
       </c>
@@ -7965,8 +12672,16 @@
       <c r="C86">
         <v>8.80002</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>18.656711117447834</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.8</v>
       </c>
@@ -7976,8 +12691,16 @@
       <c r="C87">
         <v>8.65001</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>2.8246129454416371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.8</v>
       </c>
@@ -7987,8 +12710,16 @@
       <c r="C88">
         <v>8.7000200000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>21.908563859438537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.8</v>
       </c>
@@ -7998,8 +12729,16 @@
       <c r="C89">
         <v>9.1000200000000007</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>18.656711117447834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.8</v>
       </c>
@@ -8009,8 +12748,16 @@
       <c r="C90">
         <v>8.9000199999999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>5.3793450601124357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.8</v>
       </c>
@@ -8020,8 +12767,16 @@
       <c r="C91">
         <v>8.40001</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>33.68065848566615</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>1.7406620314447361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.9</v>
       </c>
@@ -8031,8 +12786,16 @@
       <c r="C92">
         <v>8.1000099999999993</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>14.531834790175894</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.9</v>
       </c>
@@ -8042,8 +12805,16 @@
       <c r="C93">
         <v>7.4500099999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>26.914676061349255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.9</v>
       </c>
@@ -8053,8 +12824,16 @@
       <c r="C94">
         <v>7.9500099999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>0.6594485472336814</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.9</v>
       </c>
@@ -8064,8 +12843,16 @@
       <c r="C95">
         <v>8.40001</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>3.5319799586277185E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.9</v>
       </c>
@@ -8075,8 +12862,16 @@
       <c r="C96">
         <v>8.80002</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>3.5319799586277185E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.9</v>
       </c>
@@ -8086,8 +12881,16 @@
       <c r="C97">
         <v>7.8500100000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>0.6594485472336814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.9</v>
       </c>
@@ -8097,8 +12900,16 @@
       <c r="C98">
         <v>8.15001</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>10.162933556644065</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.9</v>
       </c>
@@ -8108,8 +12919,16 @@
       <c r="C99">
         <v>7.90001</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>17.538804808996659</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.9</v>
       </c>
@@ -8119,8 +12938,16 @@
       <c r="C100">
         <v>7.9500099999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>0.6594485472336814</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.9</v>
       </c>
@@ -8130,8 +12957,16 @@
       <c r="C101">
         <v>8.0000099999999996</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>35.812064373823702</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>0.6594485472336814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -8141,8 +12976,16 @@
       <c r="C102">
         <v>7.6000100000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>0.11216095230699352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -8152,8 +12995,16 @@
       <c r="C103">
         <v>7.3500100000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>1.7819697378779011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -8163,8 +13014,16 @@
       <c r="C104">
         <v>7.7500099999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>0.44235216673608591</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -8174,8 +13033,16 @@
       <c r="C105">
         <v>8.1000099999999993</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>2.7725433811651783</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -8185,8 +13052,16 @@
       <c r="C106">
         <v>7.5500100000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>21.763117024452455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -8196,8 +13071,16 @@
       <c r="C107">
         <v>7.4500099999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>0.44235216673608591</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -8207,8 +13090,16 @@
       <c r="C108">
         <v>6.7500099999999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>11.121587309019716</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -8218,8 +13109,16 @@
       <c r="C109">
         <v>7.7000099999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>1.7819697378779011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -8229,8 +13128,16 @@
       <c r="C110">
         <v>7.5500100000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>2.7725433811651783</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -8240,8 +13147,16 @@
       <c r="C111">
         <v>7.7500099999999996</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>37.665095607214546</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>0.44235216673608591</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.1000000000000001</v>
       </c>
@@ -8251,8 +13166,16 @@
       <c r="C112">
         <v>6.90001</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>7.6236522040659324E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.1000000000000001</v>
       </c>
@@ -8262,8 +13185,16 @@
       <c r="C113">
         <v>7.15001</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>10.732894239695014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.1000000000000001</v>
       </c>
@@ -8273,8 +13204,16 @@
       <c r="C114">
         <v>7.2500099999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>5.1806750004768958</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.1000000000000001</v>
       </c>
@@ -8284,8 +13223,16 @@
       <c r="C115">
         <v>7.0500100000000003</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="3"/>
+        <v>2.9717980436044229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1.1000000000000001</v>
       </c>
@@ -8295,8 +13242,16 @@
       <c r="C116">
         <v>6.40001</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>7.4195788043863047</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1.1000000000000001</v>
       </c>
@@ -8306,8 +13261,16 @@
       <c r="C117">
         <v>6.6000100000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>7.4195788043863047</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.1000000000000001</v>
       </c>
@@ -8317,8 +13280,16 @@
       <c r="C118">
         <v>7.2000099999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>5.1806750004768958</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1.1000000000000001</v>
       </c>
@@ -8328,8 +13299,16 @@
       <c r="C119">
         <v>7.40001</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>5.1806750004768958</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1.1000000000000001</v>
       </c>
@@ -8339,8 +13318,16 @@
       <c r="C120">
         <v>6.9500099999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>7.6236522040659324E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1.1000000000000001</v>
       </c>
@@ -8350,8 +13337,16 @@
       <c r="C121">
         <v>6.8500100000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <f t="shared" si="2"/>
+        <v>39.276109619609059</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>2.9717980436044229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.2</v>
       </c>
@@ -8361,8 +13356,16 @@
       <c r="C122">
         <v>6.7500099999999996</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>0.45794365327658543</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.2</v>
       </c>
@@ -8372,8 +13375,16 @@
       <c r="C123">
         <v>6.5500100000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>0.10451297049067279</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.2</v>
       </c>
@@ -8383,8 +13394,16 @@
       <c r="C124">
         <v>6.3500100000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>5.3976516049188472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.2</v>
       </c>
@@ -8394,8 +13413,16 @@
       <c r="C125">
         <v>6.7000099999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="3"/>
+        <v>7.1648050188484103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.2</v>
       </c>
@@ -8405,8 +13432,16 @@
       <c r="C126">
         <v>6.40001</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="3"/>
+        <v>0.45794365327658543</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.2</v>
       </c>
@@ -8416,8 +13451,16 @@
       <c r="C127">
         <v>6.5000099999999996</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="3"/>
+        <v>1.7510822877047603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.2</v>
       </c>
@@ -8427,8 +13470,16 @@
       <c r="C128">
         <v>6.90001</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="3"/>
+        <v>0.10451297049067279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1.2</v>
       </c>
@@ -8438,8 +13489,16 @@
       <c r="C129">
         <v>6.7500099999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="3"/>
+        <v>21.871666384420237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1.2</v>
       </c>
@@ -8449,8 +13508,16 @@
       <c r="C130">
         <v>6.6000100000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <f t="shared" si="2"/>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="3"/>
+        <v>0.45794365327658543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.2</v>
       </c>
@@ -8460,8 +13527,16 @@
       <c r="C131">
         <v>6.3000100000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="4">$F$2*(1-EXP(-$G$2*A131))</f>
+        <v>40.676715341392956</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="5">(B131-D131)^2</f>
+        <v>5.3976516049188472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.3</v>
       </c>
@@ -8471,8 +13546,16 @@
       <c r="C132">
         <v>6.7500099999999996</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="5"/>
+        <v>3.5887262902120005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1.3</v>
       </c>
@@ -8482,8 +13565,16 @@
       <c r="C133">
         <v>6.5000099999999996</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="5"/>
+        <v>8.3775130565592431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1.3</v>
       </c>
@@ -8493,8 +13584,16 @@
       <c r="C134">
         <v>6.9500099999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="5"/>
+        <v>15.166299822906486</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.3</v>
       </c>
@@ -8504,8 +13603,16 @@
       <c r="C135">
         <v>6.7500099999999996</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="5"/>
+        <v>3.5887262902120005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1.3</v>
       </c>
@@ -8515,8 +13622,16 @@
       <c r="C136">
         <v>6.2500099999999996</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>4.4335792248230268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.3</v>
       </c>
@@ -8526,8 +13641,16 @@
       <c r="C137">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>3.5887262902120005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1.3</v>
       </c>
@@ -8537,8 +13660,16 @@
       <c r="C138">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="5"/>
+        <v>3.5887262902120005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.3</v>
       </c>
@@ -8548,8 +13679,16 @@
       <c r="C139">
         <v>6.3000100000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="5"/>
+        <v>1.1152757517513484E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.3</v>
       </c>
@@ -8559,8 +13698,16 @@
       <c r="C140">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="5"/>
+        <v>3.5887262902120005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.3</v>
       </c>
@@ -8570,8 +13717,16 @@
       <c r="C141">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <f t="shared" si="4"/>
+        <v>41.894393383173622</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="5"/>
+        <v>4.4335792248230268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.4</v>
       </c>
@@ -8581,8 +13736,16 @@
       <c r="C142">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="5"/>
+        <v>4.1900648121506183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1.4</v>
       </c>
@@ -8592,8 +13755,16 @@
       <c r="C143">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="5"/>
+        <v>1.0961352513737757</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1.4</v>
       </c>
@@ -8603,8 +13774,16 @@
       <c r="C144">
         <v>6.2500099999999996</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="5"/>
+        <v>2.2056905969326558E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1.4</v>
       </c>
@@ -8614,8 +13793,16 @@
       <c r="C145">
         <v>6.2500099999999996</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="5"/>
+        <v>24.53255788671272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.4</v>
       </c>
@@ -8625,8 +13812,16 @@
       <c r="C146">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="5"/>
+        <v>2.2056905969326558E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.4</v>
       </c>
@@ -8636,8 +13831,16 @@
       <c r="C147">
         <v>6.2000099999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="5"/>
+        <v>0.90827612982008976</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.4</v>
       </c>
@@ -8647,8 +13850,16 @@
       <c r="C148">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="5"/>
+        <v>3.8143465690432468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.4</v>
       </c>
@@ -8658,8 +13869,16 @@
       <c r="C149">
         <v>6.3500100000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="5"/>
+        <v>0.90827612982008976</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1.4</v>
       </c>
@@ -8669,8 +13888,16 @@
       <c r="C150">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="5"/>
+        <v>2.2056905969326558E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.4</v>
       </c>
@@ -8680,8 +13907,16 @@
       <c r="C151">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <f t="shared" si="4"/>
+        <v>42.953035219611579</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="5"/>
+        <v>2.2056905969326558E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.5</v>
       </c>
@@ -8691,8 +13926,16 @@
       <c r="C152">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="5"/>
+        <v>3.5096723439319142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1.5</v>
       </c>
@@ -8702,8 +13945,16 @@
       <c r="C153">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="5"/>
+        <v>0.7628484388454132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.5</v>
       </c>
@@ -8713,8 +13964,16 @@
       <c r="C154">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="5"/>
+        <v>1.6024533758912281E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.5</v>
       </c>
@@ -8724,8 +13983,16 @@
       <c r="C155">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="5"/>
+        <v>1.6024533758912281E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.5</v>
       </c>
@@ -8735,8 +14002,16 @@
       <c r="C156">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="5"/>
+        <v>8.2564962490184151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.5</v>
       </c>
@@ -8746,8 +14021,16 @@
       <c r="C157">
         <v>6.15001</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="5"/>
+        <v>15.003320154104916</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.5</v>
       </c>
@@ -8757,8 +14040,16 @@
       <c r="C158">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="5"/>
+        <v>8.2564962490184151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.5</v>
       </c>
@@ -8768,8 +14059,16 @@
       <c r="C159">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="5"/>
+        <v>1.2692006286724113</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.5</v>
       </c>
@@ -8779,8 +14078,16 @@
       <c r="C160">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="5"/>
+        <v>8.2564962490184151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.5</v>
       </c>
@@ -8790,8 +14097,16 @@
       <c r="C161">
         <v>6.3500100000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <f t="shared" si="4"/>
+        <v>43.87341195254325</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="5"/>
+        <v>8.2564962490184151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1.6</v>
       </c>
@@ -8801,8 +14116,16 @@
       <c r="C162">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="5"/>
+        <v>0.10654880814621975</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1.6</v>
       </c>
@@ -8812,8 +14135,16 @@
       <c r="C163">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="5"/>
+        <v>0.45371250968780913</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.6</v>
       </c>
@@ -8823,8 +14154,16 @@
       <c r="C164">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="5"/>
+        <v>0.45371250968780913</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1.6</v>
       </c>
@@ -8834,8 +14173,16 @@
       <c r="C165">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="5"/>
+        <v>1.7593851066046304</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1.6</v>
       </c>
@@ -8845,8 +14192,16 @@
       <c r="C166">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="5"/>
+        <v>7.1480399127709875</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.6</v>
       </c>
@@ -8856,8 +14211,16 @@
       <c r="C167">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="5"/>
+        <v>0.45371250968780913</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1.6</v>
       </c>
@@ -8867,8 +14230,16 @@
       <c r="C168">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="5"/>
+        <v>2.8008762112293986</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.6</v>
       </c>
@@ -8878,8 +14249,16 @@
       <c r="C169">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="5"/>
+        <v>2.8008762112293986</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1.6</v>
       </c>
@@ -8889,8 +14268,16 @@
       <c r="C170">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="5"/>
+        <v>2.8008762112293986</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.6</v>
       </c>
@@ -8900,8 +14287,16 @@
       <c r="C171">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <f t="shared" si="4"/>
+        <v>44.673581850770795</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="5"/>
+        <v>0.45371250968780913</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.7</v>
       </c>
@@ -8911,8 +14306,16 @@
       <c r="C172">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="5"/>
+        <v>0.39785229558176571</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.7</v>
       </c>
@@ -8922,8 +14325,16 @@
       <c r="C173">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="5"/>
+        <v>0.13634162090355958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.7</v>
       </c>
@@ -8933,8 +14344,16 @@
       <c r="C174">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="5"/>
+        <v>6.9208736449381778</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1.7</v>
       </c>
@@ -8944,8 +14363,16 @@
       <c r="C175">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="5"/>
+        <v>2.6593629702599717</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1.7</v>
       </c>
@@ -8955,8 +14382,16 @@
       <c r="C176">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="5"/>
+        <v>1.8748309462253534</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.7</v>
       </c>
@@ -8966,8 +14401,16 @@
       <c r="C177">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="5"/>
+        <v>5.6133202715471473</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1.7</v>
       </c>
@@ -8977,8 +14420,16 @@
       <c r="C178">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="5"/>
+        <v>0.39785229558176571</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1.7</v>
       </c>
@@ -8988,8 +14439,16 @@
       <c r="C179">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="5"/>
+        <v>0.13634162090355958</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1.7</v>
       </c>
@@ -8999,8 +14458,16 @@
       <c r="C180">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="5"/>
+        <v>0.39785229558176571</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.7</v>
       </c>
@@ -9010,8 +14477,16 @@
       <c r="C181">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <f t="shared" si="4"/>
+        <v>45.369244662660897</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="5"/>
+        <v>1.8748309462253534</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.8</v>
       </c>
@@ -9021,8 +14496,16 @@
       <c r="C182">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="5"/>
+        <v>0.94877272719037065</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1.8</v>
       </c>
@@ -9032,8 +14515,16 @@
       <c r="C183">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="5"/>
+        <v>3.8968720338894625</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.8</v>
       </c>
@@ -9043,8 +14534,16 @@
       <c r="C184">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="5"/>
+        <v>0.94877272719037065</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1.8</v>
       </c>
@@ -9054,8 +14553,16 @@
       <c r="C185">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="5"/>
+        <v>6.7342049127873101E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1.8</v>
       </c>
@@ -9065,8 +14572,16 @@
       <c r="C186">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="5"/>
+        <v>4.1044748070930952</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1.8</v>
       </c>
@@ -9076,8 +14591,16 @@
       <c r="C187">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="5"/>
+        <v>0.94877272719037065</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1.8</v>
       </c>
@@ -9087,8 +14610,16 @@
       <c r="C188">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="5"/>
+        <v>0.94877272719037065</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1.8</v>
       </c>
@@ -9098,8 +14629,16 @@
       <c r="C189">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="5"/>
+        <v>6.7342049127873101E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1.8</v>
       </c>
@@ -9109,8 +14648,16 @@
       <c r="C190">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="5"/>
+        <v>0.94877272719037065</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1.8</v>
       </c>
@@ -9120,8 +14667,16 @@
       <c r="C191">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <f t="shared" si="4"/>
+        <v>45.974049653349546</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="5"/>
+        <v>1.0525741137921869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1.9</v>
       </c>
@@ -9131,8 +14686,16 @@
       <c r="C192">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <f t="shared" si="4"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="5"/>
+        <v>0.25013660825430617</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1.9</v>
       </c>
@@ -9142,8 +14705,16 @@
       <c r="C193">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <f t="shared" si="4"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="5"/>
+        <v>2.2504097874494819</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1.9</v>
       </c>
@@ -9153,8 +14724,16 @@
       <c r="C194">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <f t="shared" si="4"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="5"/>
+        <v>2.2504097874494819</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.9</v>
       </c>
@@ -9164,8 +14743,16 @@
       <c r="C195">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <f t="shared" ref="D195:D251" si="6">$F$2*(1-EXP(-$G$2*A195))</f>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E251" si="7">(B195-D195)^2</f>
+        <v>6.2506829666446579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1.9</v>
       </c>
@@ -9175,8 +14762,16 @@
       <c r="C196">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <f t="shared" si="6"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="7"/>
+        <v>6.2506829666446579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1.9</v>
       </c>
@@ -9186,8 +14781,16 @@
       <c r="C197">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <f t="shared" si="6"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="7"/>
+        <v>0.25013660825430617</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.9</v>
       </c>
@@ -9197,8 +14800,16 @@
       <c r="C198">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <f t="shared" si="6"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="7"/>
+        <v>0.25013660825430617</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1.9</v>
       </c>
@@ -9208,8 +14819,16 @@
       <c r="C199">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <f t="shared" si="6"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="7"/>
+        <v>0.25013660825430617</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.9</v>
       </c>
@@ -9219,8 +14838,16 @@
       <c r="C200">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <f t="shared" si="6"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="7"/>
+        <v>2.2504097874494819</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1.9</v>
       </c>
@@ -9230,8 +14857,16 @@
       <c r="C201">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <f t="shared" si="6"/>
+        <v>46.499863410402412</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="7"/>
+        <v>2.2504097874494819</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2</v>
       </c>
@@ -9241,8 +14876,16 @@
       <c r="C202">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="7"/>
+        <v>1.0878434253456106</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2</v>
       </c>
@@ -9252,8 +14895,16 @@
       <c r="C203">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="7"/>
+        <v>1.8487701792934471E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -9263,8 +14914,16 @@
       <c r="C204">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="7"/>
+        <v>1.0878434253456106</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2</v>
       </c>
@@ -9274,8 +14933,16 @@
       <c r="C205">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="7"/>
+        <v>1.0878434253456106</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2</v>
       </c>
@@ -9285,8 +14952,16 @@
       <c r="C206">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="7"/>
+        <v>4.1738380805119277</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -9296,8 +14971,16 @@
       <c r="C207">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="7"/>
+        <v>1.8487701792934471E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2</v>
       </c>
@@ -9307,8 +14990,16 @@
       <c r="C208">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="7"/>
+        <v>1.0878434253456106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2</v>
       </c>
@@ -9318,8 +15009,16 @@
       <c r="C209">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="7"/>
+        <v>1.0878434253456106</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2</v>
       </c>
@@ -9329,8 +15028,16 @@
       <c r="C210">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="7"/>
+        <v>4.1738380805119277</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2</v>
       </c>
@@ -9340,8 +15047,16 @@
       <c r="C211">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <f t="shared" si="6"/>
+        <v>46.957002672416841</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="7"/>
+        <v>1.0878434253456106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2.1</v>
       </c>
@@ -9351,8 +15066,16 @@
       <c r="C212">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="7"/>
+        <v>2.707878413754806</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2.1</v>
       </c>
@@ -9362,8 +15085,16 @@
       <c r="C213">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="7"/>
+        <v>2.707878413754806</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2.1</v>
       </c>
@@ -9373,8 +15104,16 @@
       <c r="C214">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="7"/>
+        <v>2.707878413754806</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2.1</v>
       </c>
@@ -9384,8 +15123,16 @@
       <c r="C215">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="7"/>
+        <v>0.41675191132144856</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2.1</v>
       </c>
@@ -9395,8 +15142,16 @@
       <c r="C216">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="7"/>
+        <v>6.9990049161881629</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2.1</v>
       </c>
@@ -9406,8 +15161,16 @@
       <c r="C217">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="7"/>
+        <v>0.41675191132144856</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2.1</v>
       </c>
@@ -9417,8 +15180,16 @@
       <c r="C218">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="7"/>
+        <v>2.707878413754806</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2.1</v>
       </c>
@@ -9428,8 +15199,16 @@
       <c r="C219">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="7"/>
+        <v>2.707878413754806</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2.1</v>
       </c>
@@ -9439,8 +15218,16 @@
       <c r="C220">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="7"/>
+        <v>2.707878413754806</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2.1</v>
       </c>
@@ -9450,8 +15237,16 @@
       <c r="C221">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <f t="shared" si="6"/>
+        <v>47.354436748783321</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="7"/>
+        <v>2.707878413754806</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2.2000000000000002</v>
       </c>
@@ -9461,8 +15256,16 @@
       <c r="C222">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="7"/>
+        <v>5.2901678912710901</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2.2000000000000002</v>
       </c>
@@ -9472,8 +15275,16 @@
       <c r="C223">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="7"/>
+        <v>1.690094895645438</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2.2000000000000002</v>
       </c>
@@ -9483,8 +15294,16 @@
       <c r="C224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="7"/>
+        <v>1.690094895645438</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2.2000000000000002</v>
       </c>
@@ -9494,8 +15313,16 @@
       <c r="C225">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="7"/>
+        <v>1.690094895645438</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2.2000000000000002</v>
       </c>
@@ -9505,8 +15332,16 @@
       <c r="C226">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="7"/>
+        <v>5.2901678912710901</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2.2000000000000002</v>
       </c>
@@ -9516,8 +15351,16 @@
       <c r="C227">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="7"/>
+        <v>5.2901678912710901</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2.2000000000000002</v>
       </c>
@@ -9527,8 +15370,16 @@
       <c r="C228">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="7"/>
+        <v>5.2901678912710901</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2.2000000000000002</v>
       </c>
@@ -9538,8 +15389,16 @@
       <c r="C229">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="7"/>
+        <v>1.690094895645438</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2.2000000000000002</v>
       </c>
@@ -9549,8 +15408,16 @@
       <c r="C230">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="7"/>
+        <v>5.2901678912710901</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2.2000000000000002</v>
       </c>
@@ -9560,8 +15427,16 @@
       <c r="C231">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <f t="shared" si="6"/>
+        <v>47.699963502187174</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="7"/>
+        <v>5.2901678912710901</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2.2999999999999998</v>
       </c>
@@ -9571,8 +15446,16 @@
       <c r="C232">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2.2999999999999998</v>
       </c>
@@ -9582,8 +15465,16 @@
       <c r="C233">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2.2999999999999998</v>
       </c>
@@ -9593,8 +15484,16 @@
       <c r="C234">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2.2999999999999998</v>
       </c>
@@ -9604,8 +15503,16 @@
       <c r="C235">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2.2999999999999998</v>
       </c>
@@ -9615,8 +15522,16 @@
       <c r="C236">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2.2999999999999998</v>
       </c>
@@ -9626,8 +15541,16 @@
       <c r="C237">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2.2999999999999998</v>
       </c>
@@ -9637,8 +15560,16 @@
       <c r="C238">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2.2999999999999998</v>
       </c>
@@ -9648,8 +15579,16 @@
       <c r="C239">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2.2999999999999998</v>
       </c>
@@ -9659,8 +15598,16 @@
       <c r="C240">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2.2999999999999998</v>
       </c>
@@ -9670,8 +15617,16 @@
       <c r="C241">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <f t="shared" si="6"/>
+        <v>48.000362346718347</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="7"/>
+        <v>3.9985507444217547</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2.4</v>
       </c>
@@ -9681,8 +15636,16 @@
       <c r="C242">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2.4</v>
       </c>
@@ -9692,8 +15655,16 @@
       <c r="C243">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2.4</v>
       </c>
@@ -9703,8 +15674,16 @@
       <c r="C244">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2.4</v>
       </c>
@@ -9714,8 +15693,16 @@
       <c r="C245">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2.4</v>
       </c>
@@ -9725,8 +15712,16 @@
       <c r="C246">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2.4</v>
       </c>
@@ -9736,8 +15731,16 @@
       <c r="C247">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.4</v>
       </c>
@@ -9747,8 +15750,16 @@
       <c r="C248">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2.4</v>
       </c>
@@ -9758,8 +15769,16 @@
       <c r="C249">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2.4</v>
       </c>
@@ -9769,8 +15788,16 @@
       <c r="C250">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2.4</v>
       </c>
@@ -9780,9 +15807,18 @@
       <c r="C251">
         <v>3</v>
       </c>
+      <c r="D251">
+        <f t="shared" si="6"/>
+        <v>48.261527263491651</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="7"/>
+        <v>3.0222874555828283</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9790,7 +15826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:I274"/>
     </sheetView>
   </sheetViews>
